--- a/labs/interspecific/lab-interspecific.xlsx
+++ b/labs/interspecific/lab-interspecific.xlsx
@@ -310,11 +310,11 @@
       <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="18.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="18.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1077,7 +1077,7 @@
     <mergeCell ref="K8:T8"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -1094,25 +1094,25 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
+      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="10.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="17.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1141,7 +1141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
@@ -1184,7 +1184,7 @@
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>0</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>50</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>0.2</v>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>1</v>
       </c>
@@ -1235,7 +1235,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>2</v>
       </c>
@@ -1247,7 +1247,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>3</v>
       </c>
@@ -1259,7 +1259,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="J6" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -1268,7 +1268,7 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>4</v>
       </c>
@@ -1280,7 +1280,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>5</v>
       </c>
@@ -1292,7 +1292,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>6</v>
       </c>
@@ -1304,7 +1304,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>7</v>
       </c>
@@ -1316,7 +1316,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>8</v>
       </c>
@@ -1328,7 +1328,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>9</v>
       </c>
@@ -1340,7 +1340,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>10</v>
       </c>
@@ -1352,7 +1352,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>11</v>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>12</v>
       </c>
@@ -1376,7 +1376,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>13</v>
       </c>
@@ -1388,7 +1388,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>14</v>
       </c>
@@ -1400,7 +1400,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>15</v>
       </c>
@@ -1412,7 +1412,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>16</v>
       </c>
@@ -1424,7 +1424,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>17</v>
       </c>
@@ -1436,7 +1436,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>18</v>
       </c>
@@ -1448,7 +1448,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>19</v>
       </c>
@@ -1460,7 +1460,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>20</v>
       </c>
@@ -1472,7 +1472,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>21</v>
       </c>
@@ -1484,7 +1484,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>22</v>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>23</v>
       </c>
@@ -1508,7 +1508,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>24</v>
       </c>
@@ -1520,7 +1520,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>25</v>
       </c>
@@ -1539,7 +1539,7 @@
     <mergeCell ref="K6:P6"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
